--- a/output/rtr-pod1.xlsx
+++ b/output/rtr-pod1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-Project4\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\gns3-Project4\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51AC0CDC-174E-4A7A-AEC6-1E0CBAD8502E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09FCAA-4771-47BD-BAA0-21A0A5960444}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{F39D3581-AE62-44A8-BB8C-3B8CDAA12937}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F39D3581-AE62-44A8-BB8C-3B8CDAA12937}"/>
   </bookViews>
   <sheets>
     <sheet name="as-built" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="354">
   <si>
     <t>R1.cfg</t>
   </si>
@@ -1271,10 +1271,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1306,9 +1313,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2353,10 +2361,10 @@
   <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,8 +5091,8 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>119</v>
+      <c r="A96" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C96" t="s">
         <v>119</v>
@@ -5113,7 +5121,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
         <v>121</v>
@@ -5142,7 +5150,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
         <v>90</v>
@@ -5156,8 +5164,8 @@
       <c r="I98" t="s">
         <v>122</v>
       </c>
-      <c r="K98" t="s">
-        <v>122</v>
+      <c r="K98" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="M98" t="s">
         <v>110</v>
@@ -5171,7 +5179,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
         <v>104</v>
@@ -5200,7 +5208,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -5229,7 +5237,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
         <v>123</v>
@@ -5258,7 +5266,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>126</v>
@@ -5287,7 +5295,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
         <v>146</v>
@@ -5316,7 +5324,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
         <v>119</v>
@@ -5345,7 +5353,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
         <v>121</v>
@@ -5374,7 +5382,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
         <v>90</v>
@@ -5403,7 +5411,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C107" t="s">
         <v>104</v>
@@ -5432,7 +5440,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
@@ -5461,7 +5469,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
         <v>150</v>
@@ -5490,7 +5498,7 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
         <v>124</v>
@@ -5519,7 +5527,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
         <v>89</v>
@@ -5548,7 +5556,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C112" t="s">
         <v>118</v>
@@ -5577,7 +5585,7 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
         <v>121</v>
@@ -5606,7 +5614,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
         <v>90</v>
@@ -5635,7 +5643,7 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
@@ -5664,7 +5672,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
         <v>160</v>
@@ -5693,7 +5701,7 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -5722,7 +5730,7 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
         <v>89</v>
@@ -5751,7 +5759,7 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C119" t="s">
         <v>118</v>
@@ -5780,7 +5788,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
@@ -5809,7 +5817,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
         <v>90</v>
@@ -5838,7 +5846,7 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
@@ -5867,7 +5875,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
         <v>166</v>
@@ -5896,7 +5904,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
         <v>124</v>
@@ -5925,7 +5933,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
         <v>89</v>
@@ -5954,7 +5962,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C126" t="s">
         <v>118</v>
@@ -5983,7 +5991,7 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
         <v>121</v>
@@ -6012,7 +6020,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
         <v>90</v>
@@ -6041,7 +6049,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -6070,7 +6078,7 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
         <v>172</v>
@@ -6099,7 +6107,7 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C131" t="s">
         <v>124</v>
@@ -6128,7 +6136,7 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C132" t="s">
         <v>89</v>
@@ -6157,7 +6165,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C133" t="s">
         <v>118</v>
@@ -6186,7 +6194,7 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C134" t="s">
         <v>121</v>
@@ -6215,7 +6223,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C135" t="s">
         <v>90</v>
@@ -6244,7 +6252,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
@@ -6273,7 +6281,7 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
         <v>181</v>
@@ -6302,7 +6310,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C138" t="s">
         <v>184</v>
@@ -6331,7 +6339,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
         <v>185</v>
@@ -6360,7 +6368,7 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C140" t="s">
         <v>187</v>
@@ -6389,7 +6397,7 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C141" t="s">
         <v>158</v>
@@ -6418,7 +6426,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
@@ -6447,7 +6455,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
         <v>192</v>
@@ -6476,7 +6484,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C144" t="s">
         <v>196</v>
@@ -6505,7 +6513,7 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C145" t="s">
         <v>198</v>
@@ -6534,7 +6542,7 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C146" t="s">
         <v>201</v>
@@ -6563,7 +6571,7 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C147" t="s">
         <v>204</v>
@@ -6592,7 +6600,7 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
         <v>207</v>
@@ -6621,7 +6629,7 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C149" t="s">
         <v>212</v>
@@ -6650,7 +6658,7 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C150" t="s">
         <v>217</v>
@@ -6679,7 +6687,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
         <v>221</v>
@@ -6708,7 +6716,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C152" t="s">
         <v>227</v>
@@ -6737,7 +6745,7 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C153" t="s">
         <v>232</v>
@@ -6766,7 +6774,7 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C154" t="s">
         <v>237</v>
@@ -6795,7 +6803,7 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C155" t="s">
         <v>242</v>
@@ -6824,7 +6832,7 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
         <v>249</v>
@@ -6853,7 +6861,7 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C157" t="s">
         <v>256</v>
@@ -6882,7 +6890,7 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C158" t="s">
         <v>262</v>
@@ -6911,7 +6919,7 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C159" t="s">
         <v>268</v>
@@ -6940,7 +6948,7 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C160" t="s">
         <v>274</v>
@@ -6969,7 +6977,7 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s">
         <v>281</v>
@@ -6998,7 +7006,7 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C162" t="s">
         <v>287</v>
@@ -7027,7 +7035,7 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C163" t="s">
         <v>291</v>
@@ -7056,7 +7064,7 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C164" t="s">
         <v>295</v>
@@ -7085,7 +7093,7 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C165" t="s">
         <v>299</v>
@@ -7114,7 +7122,7 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C166" t="s">
         <v>305</v>
@@ -7143,7 +7151,7 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C167" t="s">
         <v>310</v>
@@ -7172,7 +7180,7 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="C168" t="s">
         <v>16</v>
@@ -7201,7 +7209,7 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
         <v>161</v>
@@ -7230,7 +7238,7 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
@@ -7288,7 +7296,7 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
         <v>162</v>
@@ -7317,7 +7325,7 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C173" t="s">
         <v>164</v>
@@ -7346,7 +7354,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -7369,7 +7377,7 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
         <v>165</v>
@@ -7392,7 +7400,7 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -7461,7 +7469,7 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
         <v>168</v>
@@ -7484,7 +7492,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -7507,7 +7515,7 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
         <v>169</v>
@@ -7530,7 +7538,7 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C182" t="s">
         <v>170</v>
@@ -7553,7 +7561,7 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C183" t="s">
         <v>173</v>
@@ -7576,7 +7584,7 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" t="s">
         <v>174</v>
@@ -7599,7 +7607,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C185" t="s">
         <v>175</v>
@@ -7622,7 +7630,7 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186" t="s">
         <v>176</v>
@@ -7645,7 +7653,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C187" t="s">
         <v>177</v>
@@ -7668,7 +7676,7 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C188" t="s">
         <v>179</v>
@@ -7691,7 +7699,7 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" t="s">
         <v>180</v>
@@ -7714,7 +7722,7 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C190" t="s">
         <v>182</v>
@@ -7737,7 +7745,7 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C191" t="s">
         <v>170</v>
@@ -7760,7 +7768,7 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C192" t="s">
         <v>173</v>
@@ -7783,7 +7791,7 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C193" t="s">
         <v>174</v>
@@ -7806,7 +7814,7 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C194" t="s">
         <v>175</v>
@@ -7829,7 +7837,7 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C195" t="s">
         <v>176</v>
@@ -7852,7 +7860,7 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C196" t="s">
         <v>177</v>
@@ -7875,7 +7883,7 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C197" t="s">
         <v>179</v>
@@ -7898,7 +7906,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C198" t="s">
         <v>180</v>
@@ -7921,7 +7929,7 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s">
         <v>202</v>
@@ -7944,7 +7952,7 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="C200" t="s">
         <v>170</v>
@@ -7967,7 +7975,7 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C201" t="s">
         <v>173</v>
@@ -7990,7 +7998,7 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C202" t="s">
         <v>174</v>
@@ -8013,7 +8021,7 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C203" t="s">
         <v>175</v>
@@ -8036,7 +8044,7 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C204" t="s">
         <v>176</v>
@@ -8059,7 +8067,7 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C205" t="s">
         <v>177</v>
@@ -8082,7 +8090,7 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C206" t="s">
         <v>179</v>
@@ -8105,7 +8113,7 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C207" t="s">
         <v>180</v>
@@ -8128,7 +8136,7 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="C208" t="s">
         <v>16</v>
@@ -8151,7 +8159,7 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
         <v>254</v>
@@ -8174,7 +8182,7 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C210" t="s">
         <v>259</v>
@@ -8197,7 +8205,7 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C211" t="s">
         <v>265</v>
@@ -8220,7 +8228,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C212" t="s">
         <v>272</v>
@@ -8243,7 +8251,7 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C213" t="s">
         <v>279</v>
@@ -8266,7 +8274,7 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C214" t="s">
         <v>285</v>
@@ -8289,7 +8297,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C215" t="s">
         <v>259</v>
@@ -8309,7 +8317,7 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C216" t="s">
         <v>265</v>
@@ -8329,7 +8337,7 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C217" t="s">
         <v>279</v>
@@ -8349,7 +8357,7 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="C218" t="s">
         <v>304</v>
@@ -8369,7 +8377,7 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C219" t="s">
         <v>309</v>
@@ -8389,7 +8397,7 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="C220" t="s">
         <v>272</v>
@@ -8409,7 +8417,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C221" t="s">
         <v>320</v>
@@ -8429,7 +8437,7 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C222" t="s">
         <v>326</v>
@@ -8449,7 +8457,7 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="C223" t="s">
         <v>16</v>
@@ -8469,7 +8477,7 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
         <v>332</v>
@@ -8489,7 +8497,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="C225" t="s">
         <v>16</v>
@@ -8509,7 +8517,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>337</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
         <v>337</v>
@@ -8528,6 +8536,9 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>337</v>
+      </c>
       <c r="E227" t="s">
         <v>272</v>
       </c>
@@ -8674,6 +8685,7 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/rtr-pod1.xlsx
+++ b/output/rtr-pod1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\gns3-Project4\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-Project4\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09FCAA-4771-47BD-BAA0-21A0A5960444}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23247C3A-2670-4D96-96D8-350796567565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F39D3581-AE62-44A8-BB8C-3B8CDAA12937}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{F39D3581-AE62-44A8-BB8C-3B8CDAA12937}"/>
   </bookViews>
   <sheets>
     <sheet name="as-built" sheetId="1" r:id="rId1"/>
@@ -2361,10 +2361,10 @@
   <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,8 +5161,8 @@
       <c r="G98" t="s">
         <v>119</v>
       </c>
-      <c r="I98" t="s">
-        <v>122</v>
+      <c r="I98" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>16</v>
